--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java_班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A67EA2-BD37-4730-BE9D-F256EF9925C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD0B7F-2A46-49A4-8EA4-EB9A111B53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -85,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t>03 758 1072</t>
-  </si>
-  <si>
     <t>M001</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     </r>
   </si>
   <si>
-    <t>03 747 4796</t>
-  </si>
-  <si>
     <t>C002</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     </r>
   </si>
   <si>
-    <t>03 732 0059</t>
-  </si>
-  <si>
     <t>C006</t>
   </si>
   <si>
@@ -489,9 +480,6 @@
     </r>
   </si>
   <si>
-    <t>03 766 3004</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1140,6 +1128,34 @@
   </si>
   <si>
     <t>Miaoli_public_instiution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-758-1072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-747-4796</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-732-0059</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-766-3004</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1208,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1227,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1221,15 +1243,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,8 +1288,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - 輔色3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - 輔色4" xfId="1" builtinId="42"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1578,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1602,619 +1634,675 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
+      <c r="E5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2">
-        <v>3142</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
-        <v>1072</v>
+        <v>3142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="2">
-        <v>32</v>
+        <v>1072</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="6">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="C10" s="6">
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
-        <v>2038</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="3">
-        <v>128</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2038</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2">
-        <v>353</v>
+        <v>73</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2">
+        <v>194</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
